--- a/v5-Sugungum/iter0/Cuts/Density_by_age_and_season/train_data.xlsx
+++ b/v5-Sugungum/iter0/Cuts/Density_by_age_and_season/train_data.xlsx
@@ -449,12 +449,12 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>Yglm</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>Yerr</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Yglm</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -552,32 +552,32 @@
         <v>0.348831432756427</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02738207050037988</v>
+        <v>0.3328330247864538</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3214493622560471</v>
+        <v>0.01599840796997326</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03299692633846948</v>
+        <v>0.004458984256266636</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3544462885945167</v>
+        <v>0.3372920090427204</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001009165244780012</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0001087491934568826</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="b">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.1767492044050128</v>
+        <v>0.2805681047091882</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.5384254601157886</v>
+        <v>0.6009598170000336</v>
       </c>
     </row>
     <row r="3">
@@ -634,32 +634,32 @@
         <v>0.6438218129391506</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01644031619718844</v>
+        <v>0.6367172524903926</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6602621291363391</v>
+        <v>0.007104560448758068</v>
       </c>
       <c r="S3" t="n">
-        <v>0.003893003253532173</v>
+        <v>0.001980142227213417</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6641551323898712</v>
+        <v>0.638697394717606</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0009734084094961162</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V3" t="n">
-        <v>7.299235817298698e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="b">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.6517195317843941</v>
+        <v>0.1245944636254439</v>
       </c>
       <c r="Z3" t="n">
-        <v>-2.379959608212395</v>
+        <v>0.2668737636345876</v>
       </c>
     </row>
     <row r="4">
@@ -716,32 +716,32 @@
         <v>0.4116292308199856</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.01981784799111957</v>
+        <v>0.4187598982248545</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4314470788111052</v>
+        <v>-0.007130667404868951</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.04055110162549606</v>
+        <v>-0.001987418607683643</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3908959771856091</v>
+        <v>0.4167724796171709</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0009829240692056855</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V4" t="n">
-        <v>8.250801788255618e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="b">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6613136326805321</v>
+        <v>-0.1250523078860555</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.282545184919345</v>
+        <v>-0.2678544381961415</v>
       </c>
     </row>
     <row r="5">
@@ -798,32 +798,32 @@
         <v>0.3650762425838605</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.003074469422748916</v>
+        <v>0.3615586235692292</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3620017731611116</v>
+        <v>0.003517619014631268</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.01383435496016529</v>
+        <v>0.0009804105406226097</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3481674182009463</v>
+        <v>0.3625390341098518</v>
       </c>
       <c r="U5" t="n">
-        <v>0.000978035142624906</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V5" t="n">
-        <v>7.761909130177661e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="b">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5406748687465351</v>
+        <v>0.06168936945777911</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.919239337316754</v>
+        <v>0.1321348776213205</v>
       </c>
     </row>
     <row r="6">
@@ -880,32 +880,32 @@
         <v>0.3534450172319153</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.03316846110474825</v>
+        <v>0.3887359667864959</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3866134783366635</v>
+        <v>-0.03529094955458056</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.009225953608925598</v>
+        <v>-0.009836090487451222</v>
       </c>
       <c r="T6" t="n">
-        <v>0.377387524727738</v>
+        <v>0.3788998762990446</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0009808823493328907</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V6" t="n">
-        <v>8.046629800976141e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="b">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.7644712764230929</v>
+        <v>-0.6189062592112681</v>
       </c>
       <c r="Z6" t="n">
-        <v>-2.669086332383948</v>
+        <v>-1.325659567260137</v>
       </c>
     </row>
     <row r="7">
@@ -962,32 +962,32 @@
         <v>0.6494549770879188</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0240159951887905</v>
+        <v>0.6512195141342467</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6254389818991283</v>
+        <v>-0.001764537046327952</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.01059379098236557</v>
+        <v>-0.0004918016169043378</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6148451909167627</v>
+        <v>0.6507277125173424</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001018381520855786</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0001179654695326564</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="b">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.084535222096363</v>
+        <v>-0.03094513002460162</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.186555344684421</v>
+        <v>-0.06628258652530228</v>
       </c>
     </row>
     <row r="8">
@@ -1044,32 +1044,32 @@
         <v>0.6485195138101177</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.001631064277973437</v>
+        <v>0.6367836735344109</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6468884495321443</v>
+        <v>0.01173584027570684</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0017646430725261</v>
+        <v>0.003270945904245467</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6486530926046704</v>
+        <v>0.6400546194386564</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0009733911845190294</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V8" t="n">
-        <v>7.297513319590011e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="b">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.004281478974134117</v>
+        <v>0.2058143828745421</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.0156368788645806</v>
+        <v>0.4408418911210941</v>
       </c>
     </row>
     <row r="9">
@@ -1126,32 +1126,32 @@
         <v>0.6508626175167035</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1082293194418363</v>
+        <v>0.5817339295994552</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5426332980748672</v>
+        <v>0.06912868791724824</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0324479862174345</v>
+        <v>0.01926715030976717</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5750812842923017</v>
+        <v>0.6010010799092225</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0009849473338583298</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V9" t="n">
-        <v>8.453128253520066e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="b">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.414658605672502</v>
+        <v>1.212327188211308</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.242396690316403</v>
+        <v>2.596731107147026</v>
       </c>
     </row>
     <row r="10">
@@ -1208,32 +1208,32 @@
         <v>0.3516582940892983</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.03696643304329356</v>
+        <v>0.3581730889738661</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3886247271325918</v>
+        <v>-0.006514794884567854</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.02007457383926994</v>
+        <v>-0.001815766160953512</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3685501532933219</v>
+        <v>0.3563573228129126</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0009836163891669702</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V10" t="n">
-        <v>8.320033784384089e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="b">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.5385977994228387</v>
+        <v>-0.1142515965847153</v>
       </c>
       <c r="Z10" t="n">
-        <v>-1.851888812079357</v>
+        <v>-0.2447199714546299</v>
       </c>
     </row>
     <row r="11">
@@ -1290,32 +1290,32 @@
         <v>0.6501629602611781</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.08137395523780411</v>
+        <v>0.5980054374286543</v>
       </c>
       <c r="R11" t="n">
-        <v>0.568789005023374</v>
+        <v>0.05215752283252384</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01693366715654453</v>
+        <v>0.0145370447852835</v>
       </c>
       <c r="T11" t="n">
-        <v>0.5857226721799186</v>
+        <v>0.6125424822139378</v>
       </c>
       <c r="U11" t="n">
-        <v>0.001018847810473233</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0001184317591501043</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="b">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.018844249020042</v>
+        <v>0.9146995972970802</v>
       </c>
       <c r="Z11" t="n">
-        <v>5.921386144749065</v>
+        <v>1.959230908201149</v>
       </c>
     </row>
     <row r="12">
@@ -1372,32 +1372,32 @@
         <v>0.6448503449465685</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.04930048960314504</v>
+        <v>0.6414458251463583</v>
       </c>
       <c r="R12" t="n">
-        <v>0.6941508345497135</v>
+        <v>0.003404519800210171</v>
       </c>
       <c r="S12" t="n">
-        <v>-9.770477029649755e-05</v>
+        <v>0.0009488881780577954</v>
       </c>
       <c r="T12" t="n">
-        <v>0.694053129779417</v>
+        <v>0.6423947133244161</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0009937802485263365</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V12" t="n">
-        <v>9.336419720320748e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="b">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>-1.560790107253843</v>
+        <v>0.05970592008618807</v>
       </c>
       <c r="Z12" t="n">
-        <v>-5.092130211316726</v>
+        <v>0.1278864496946476</v>
       </c>
     </row>
     <row r="13">
@@ -1454,32 +1454,32 @@
         <v>0.6599068321771586</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.00661691599071379</v>
+        <v>0.6231909533452036</v>
       </c>
       <c r="R13" t="n">
-        <v>0.6532899161864448</v>
+        <v>0.03671587883195504</v>
       </c>
       <c r="S13" t="n">
-        <v>0.04138191273806582</v>
+        <v>0.01023323858049065</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6946718289245106</v>
+        <v>0.6334241919256942</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00102418838491934</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0001237723335962108</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="b">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.086306229262862</v>
+        <v>0.643895602362099</v>
       </c>
       <c r="Z13" t="n">
-        <v>-3.124858839021267</v>
+        <v>1.379185220514416</v>
       </c>
     </row>
     <row r="14">
@@ -1536,32 +1536,32 @@
         <v>0.588646947645989</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.05024139972998476</v>
+        <v>0.5107859916711031</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5384055479160043</v>
+        <v>0.07786095597488596</v>
       </c>
       <c r="S14" t="n">
-        <v>0.02807444154898714</v>
+        <v>0.02170095784003993</v>
       </c>
       <c r="T14" t="n">
-        <v>0.5664799894649915</v>
+        <v>0.5324869495111429</v>
       </c>
       <c r="U14" t="n">
-        <v>0.001004977519170479</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0001045614678473494</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="b">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.6992426797302985</v>
+        <v>1.365467169599582</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.167805262901321</v>
+        <v>2.92474763377922</v>
       </c>
     </row>
     <row r="15">
@@ -1618,32 +1618,32 @@
         <v>0.3964056115477867</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.009923920444914691</v>
+        <v>0.4495074275004018</v>
       </c>
       <c r="R15" t="n">
-        <v>0.386481691102872</v>
+        <v>-0.05310181595261515</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.04391652787872871</v>
+        <v>-0.01480023273252397</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3425651632241433</v>
+        <v>0.4347071947678779</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0009846423134365586</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V15" t="n">
-        <v>8.422626211342947e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="b">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.71581089069614</v>
+        <v>-0.9312599032703675</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.866578736476592</v>
+        <v>-1.994702076449182</v>
       </c>
     </row>
     <row r="16">
@@ -1700,32 +1700,32 @@
         <v>0.3514141494143999</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.0882086205033541</v>
+        <v>0.4413574908668297</v>
       </c>
       <c r="R16" t="n">
-        <v>0.439622769917754</v>
+        <v>-0.08994334145242977</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.04348640326601316</v>
+        <v>-0.02506849082954366</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3961363666517408</v>
+        <v>0.416289000037286</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0009798652468817127</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V16" t="n">
-        <v>7.944919555858364e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="b">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.428697054961008</v>
+        <v>-1.577359002853371</v>
       </c>
       <c r="Z16" t="n">
-        <v>-5.017398258520241</v>
+        <v>-3.378607054000868</v>
       </c>
     </row>
     <row r="17">
@@ -1782,32 +1782,32 @@
         <v>0.6510544525619674</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.04737923833482416</v>
+        <v>0.6136292761858205</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6036752142271432</v>
+        <v>0.03742517637614684</v>
       </c>
       <c r="S17" t="n">
-        <v>0.04259626457478463</v>
+        <v>0.01043092991255507</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6462714788019278</v>
+        <v>0.6240602060983756</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0009761431404638571</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V17" t="n">
-        <v>7.572708914072807e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="b">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.1530880337013233</v>
+        <v>0.6563347318069697</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.549632451618515</v>
+        <v>1.40582907927583</v>
       </c>
     </row>
     <row r="18">
@@ -1864,32 +1864,32 @@
         <v>0.630281808519808</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04943236599474576</v>
+        <v>0.5960927988985923</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5808494425250622</v>
+        <v>0.03418900962121563</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01522305346218353</v>
+        <v>0.009528964127104748</v>
       </c>
       <c r="T18" t="n">
-        <v>0.5960724959872458</v>
+        <v>0.6056217630256971</v>
       </c>
       <c r="U18" t="n">
-        <v>0.001001938012262265</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0001015219609391358</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="b">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.080746704636252</v>
+        <v>0.5995812614200816</v>
       </c>
       <c r="Z18" t="n">
-        <v>3.395192069954096</v>
+        <v>1.284266597278195</v>
       </c>
     </row>
     <row r="19">
@@ -1946,32 +1946,32 @@
         <v>0.6392245467210517</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.03276626329932897</v>
+        <v>0.6127694391659207</v>
       </c>
       <c r="R19" t="n">
-        <v>0.6064582834217227</v>
+        <v>0.02645510755513092</v>
       </c>
       <c r="S19" t="n">
-        <v>0.002667397720163279</v>
+        <v>0.007373415423997131</v>
       </c>
       <c r="T19" t="n">
-        <v>0.609125681141886</v>
+        <v>0.6201428545899179</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0009766631579998714</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V19" t="n">
-        <v>7.624710667674235e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="b">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.9631140639029906</v>
+        <v>0.4639498755485711</v>
       </c>
       <c r="Z19" t="n">
-        <v>3.446977457858097</v>
+        <v>0.993752417424114</v>
       </c>
     </row>
     <row r="20">
@@ -2028,32 +2028,32 @@
         <v>0.3466753224390499</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.002123615307837279</v>
+        <v>0.3553308920670726</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3487989377468872</v>
+        <v>-0.008655569628022663</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.01100975696740619</v>
+        <v>-0.002412430585000929</v>
       </c>
       <c r="T20" t="n">
-        <v>0.337789180779481</v>
+        <v>0.3529184614820717</v>
       </c>
       <c r="U20" t="n">
-        <v>0.001030395814930594</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0001299797636074645</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="b">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.2768287484558814</v>
+        <v>-0.151794901738113</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.7794268472511553</v>
+        <v>-0.3251354478251464</v>
       </c>
     </row>
     <row r="21">
@@ -2110,32 +2110,32 @@
         <v>0.6512741120916211</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.008976489559880285</v>
+        <v>0.6412582339157087</v>
       </c>
       <c r="R21" t="n">
-        <v>0.6602506016515014</v>
+        <v>0.01001587817591243</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.01570889551597827</v>
+        <v>0.002791567959977935</v>
       </c>
       <c r="T21" t="n">
-        <v>0.6445417061355231</v>
+        <v>0.6440498018756866</v>
       </c>
       <c r="U21" t="n">
-        <v>0.001005914593871211</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0001054985425480819</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="b">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.2122705479827567</v>
+        <v>0.1756509749016656</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.6554613159465151</v>
+        <v>0.3762337056886621</v>
       </c>
     </row>
     <row r="22">
@@ -2192,32 +2192,32 @@
         <v>0.6334777605923568</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.06102067963566749</v>
+        <v>0.6031639174613478</v>
       </c>
       <c r="R22" t="n">
-        <v>0.5724570809566893</v>
+        <v>0.03031384313100904</v>
       </c>
       <c r="S22" t="n">
-        <v>0.04429802950286048</v>
+        <v>0.008448900010580492</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6167551104595498</v>
+        <v>0.6116128174719283</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0009809754290496817</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V22" t="n">
-        <v>8.055937772655271e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="b">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.5339198150693546</v>
+        <v>0.5316214919455717</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.863146702544199</v>
+        <v>1.138700904167433</v>
       </c>
     </row>
     <row r="23">
@@ -2274,32 +2274,32 @@
         <v>0.637827315216418</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.03742685200776408</v>
+        <v>0.5368213400157109</v>
       </c>
       <c r="R23" t="n">
-        <v>0.6004004632086539</v>
+        <v>0.1010059752007071</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0475276932918513</v>
+        <v>0.02815180448243562</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6479281565005053</v>
+        <v>0.5649731444981465</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0009725186609639609</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V23" t="n">
-        <v>7.210260964083179e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="b">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.3238982304280961</v>
+        <v>1.771367193519861</v>
       </c>
       <c r="Z23" t="n">
-        <v>-1.18954823030579</v>
+        <v>3.794160799428523</v>
       </c>
     </row>
     <row r="24">
@@ -2356,32 +2356,32 @@
         <v>0.6509378886852238</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.002723516385480851</v>
+        <v>0.6415160507889563</v>
       </c>
       <c r="R24" t="n">
-        <v>0.648214372299743</v>
+        <v>0.009421837896267493</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.02580843501935191</v>
+        <v>0.002626000469797577</v>
       </c>
       <c r="T24" t="n">
-        <v>0.6224059372803911</v>
+        <v>0.6441420512587539</v>
       </c>
       <c r="U24" t="n">
-        <v>0.001036104416666398</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0001356883653432692</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="b">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.8863999301586732</v>
+        <v>0.1652331410962618</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.449402576973025</v>
+        <v>0.3539193392580177</v>
       </c>
     </row>
     <row r="25">
@@ -2438,32 +2438,32 @@
         <v>0.3407649648409279</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.03016482071119075</v>
+        <v>0.2735308776377394</v>
       </c>
       <c r="R25" t="n">
-        <v>0.3106001441297371</v>
+        <v>0.06723408720318846</v>
       </c>
       <c r="S25" t="n">
-        <v>0.03966778582473425</v>
+        <v>0.01873909809534783</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3502679299544714</v>
+        <v>0.2922699757330873</v>
       </c>
       <c r="U25" t="n">
-        <v>0.001061947921514396</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0001615318701912668</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="b">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>-0.2916134327852575</v>
+        <v>1.179101098932527</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.7477045513980485</v>
+        <v>2.525562844620181</v>
       </c>
     </row>
     <row r="26">
@@ -2520,32 +2520,32 @@
         <v>0.3502360491878814</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.01550279417104183</v>
+        <v>0.3883767201624325</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3657388433589232</v>
+        <v>-0.03814067097455115</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.03320722152718156</v>
+        <v>-0.01063034845174238</v>
       </c>
       <c r="T26" t="n">
-        <v>0.3325316218317417</v>
+        <v>0.3777463717106901</v>
       </c>
       <c r="U26" t="n">
-        <v>0.00102238282556763</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0001219667742445004</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="b">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.5537007496582251</v>
+        <v>-0.6688825405548473</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.603101849997496</v>
+        <v>-1.432705722494745</v>
       </c>
     </row>
     <row r="27">
@@ -2602,32 +2602,32 @@
         <v>0.3480602987959402</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.02425457710690765</v>
+        <v>0.3626581461349618</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3723148759028479</v>
+        <v>-0.01459784733902153</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.02679480465304204</v>
+        <v>-0.004068628052204364</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3455200712498059</v>
+        <v>0.3585895180827574</v>
       </c>
       <c r="U27" t="n">
-        <v>0.001022193836820462</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0001217777854973331</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="b">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.07945221188826776</v>
+        <v>-0.2560061206402133</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.2301911301098844</v>
+        <v>-0.548349540908428</v>
       </c>
     </row>
     <row r="28">
@@ -2684,32 +2684,32 @@
         <v>0.3599373393258756</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.003276619885265231</v>
+        <v>0.336024354289886</v>
       </c>
       <c r="R28" t="n">
-        <v>0.3632139592111409</v>
+        <v>0.02391298503598965</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.0006048471812099513</v>
+        <v>0.006664889656221317</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3626091120299309</v>
+        <v>0.3426892439461073</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0009743364247335065</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V28" t="n">
-        <v>7.392037341037742e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="b">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.08559433838117177</v>
+        <v>0.419368033500389</v>
       </c>
       <c r="Z28" t="n">
-        <v>-0.3107545044675827</v>
+        <v>0.8982608230870812</v>
       </c>
     </row>
     <row r="29">
@@ -2766,32 +2766,32 @@
         <v>0.6414758458535834</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.02335122208990226</v>
+        <v>0.6881396265228366</v>
       </c>
       <c r="R29" t="n">
-        <v>0.6648270679434857</v>
+        <v>-0.04666378066925314</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.009402696304500659</v>
+        <v>-0.01300586056605076</v>
       </c>
       <c r="T29" t="n">
-        <v>0.655424371638985</v>
+        <v>0.6751337659567858</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0009813463075583535</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V29" t="n">
-        <v>8.093025623522428e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="b">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-0.4452635691890408</v>
+        <v>-0.8183544591218948</v>
       </c>
       <c r="Z29" t="n">
-        <v>-1.550503860502524</v>
+        <v>-1.752865481644143</v>
       </c>
     </row>
     <row r="30">
@@ -2848,32 +2848,32 @@
         <v>0.6436675645092276</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.0427086210801958</v>
+        <v>0.7067717101994037</v>
       </c>
       <c r="R30" t="n">
-        <v>0.6863761855894234</v>
+        <v>-0.06310414569017608</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.03315406037788751</v>
+        <v>-0.01758802454959429</v>
       </c>
       <c r="T30" t="n">
-        <v>0.6532221252115359</v>
+        <v>0.6891836856498094</v>
       </c>
       <c r="U30" t="n">
-        <v>0.001069323495198859</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V30" t="n">
-        <v>0.0001689074438757294</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="b">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.2921838244313057</v>
+        <v>-1.106673275803026</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.7351675498168875</v>
+        <v>-2.370426852313674</v>
       </c>
     </row>
     <row r="31">
@@ -2930,32 +2930,32 @@
         <v>0.4228731350551367</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.08318481087610363</v>
+        <v>0.4470082087096308</v>
       </c>
       <c r="R31" t="n">
-        <v>0.5060579459312403</v>
+        <v>-0.02413507365449413</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.02793647525094263</v>
+        <v>-0.006726788918465278</v>
       </c>
       <c r="T31" t="n">
-        <v>0.4781214706802977</v>
+        <v>0.4402814197911655</v>
       </c>
       <c r="U31" t="n">
-        <v>0.001002854198986518</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V31" t="n">
-        <v>0.0001024381476633885</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="b">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-1.744617805927358</v>
+        <v>-0.4232628574704291</v>
       </c>
       <c r="Z31" t="n">
-        <v>-5.458688863389198</v>
+        <v>-0.906603299159722</v>
       </c>
     </row>
     <row r="32">
@@ -3012,32 +3012,32 @@
         <v>0.6491030086936108</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.01025621456516879</v>
+        <v>0.6518846009772465</v>
       </c>
       <c r="R32" t="n">
-        <v>0.638846794128442</v>
+        <v>-0.002781592283635725</v>
       </c>
       <c r="S32" t="n">
-        <v>0.008749383749316936</v>
+        <v>-0.0007752694031569557</v>
       </c>
       <c r="T32" t="n">
-        <v>0.6475961778777589</v>
+        <v>0.6511093315740896</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0009935400210777762</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V32" t="n">
-        <v>9.312396975464729e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="b">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.04780483355341095</v>
+        <v>-0.04878148354514201</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.1561470388413714</v>
+        <v>-0.1044869710142738</v>
       </c>
     </row>
     <row r="33">
@@ -3094,32 +3094,32 @@
         <v>0.3482000529031912</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.07074687678356467</v>
+        <v>0.4252265235532721</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4189469296867559</v>
+        <v>-0.07702647065008089</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.04632282635354651</v>
+        <v>-0.02146837488958228</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3726241033332094</v>
+        <v>0.4037581486636899</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0009874687014279524</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V33" t="n">
-        <v>8.705265010482343e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="b">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>-0.7772415664857496</v>
+        <v>-1.350832590561633</v>
       </c>
       <c r="Z33" t="n">
-        <v>-2.61774108763227</v>
+        <v>-2.893401255509908</v>
       </c>
     </row>
     <row r="34">
@@ -3176,32 +3176,32 @@
         <v>0.3542402378303229</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.02557621852251857</v>
+        <v>0.3544944954484666</v>
       </c>
       <c r="R34" t="n">
-        <v>0.3798164563528414</v>
+        <v>-0.0002542576181436829</v>
       </c>
       <c r="S34" t="n">
-        <v>0.007211255014264485</v>
+        <v>-7.086522089941614e-05</v>
       </c>
       <c r="T34" t="n">
-        <v>0.387027711367106</v>
+        <v>0.3544236302275671</v>
       </c>
       <c r="U34" t="n">
-        <v>0.001001185545279148</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0001007694939560185</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="b">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-1.036216891909922</v>
+        <v>-0.004458979806051655</v>
       </c>
       <c r="Z34" t="n">
-        <v>-3.266204811656411</v>
+        <v>-0.009550863563159298</v>
       </c>
     </row>
     <row r="35">
@@ -3258,32 +3258,32 @@
         <v>0.347757337313338</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.08806559647960616</v>
+        <v>0.4060569134355786</v>
       </c>
       <c r="R35" t="n">
-        <v>0.4358229337929442</v>
+        <v>-0.05829957612224063</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.05553492958507217</v>
+        <v>-0.01624892255261276</v>
       </c>
       <c r="T35" t="n">
-        <v>0.380288004207872</v>
+        <v>0.3898079908829659</v>
       </c>
       <c r="U35" t="n">
-        <v>0.001012614183409338</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V35" t="n">
-        <v>0.0001121981320862084</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="b">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-1.02228258753962</v>
+        <v>-1.022414330778</v>
       </c>
       <c r="Z35" t="n">
-        <v>-3.071143809961876</v>
+        <v>-2.189949316439307</v>
       </c>
     </row>
     <row r="36">
@@ -3340,32 +3340,32 @@
         <v>0.3561619428536161</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.04210645623777254</v>
+        <v>0.430885733297612</v>
       </c>
       <c r="R36" t="n">
-        <v>0.3982683990913886</v>
+        <v>-0.07472379044399591</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.03730119864560071</v>
+        <v>-0.02082658510617339</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3609672004457879</v>
+        <v>0.4100591481914386</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0009899483717131165</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V36" t="n">
-        <v>8.95323203899872e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="b">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>-0.1527250938697771</v>
+        <v>-1.310449908585377</v>
       </c>
       <c r="Z36" t="n">
-        <v>-0.5078398227325681</v>
+        <v>-2.806904006666972</v>
       </c>
     </row>
     <row r="37">
@@ -3422,32 +3422,32 @@
         <v>0.3492920941717628</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.07928048989682246</v>
+        <v>0.43585267853972</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4285725840685853</v>
+        <v>-0.08656058436795722</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.04985701660500388</v>
+        <v>-0.02412566823054295</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3787155674635814</v>
+        <v>0.4117270103091771</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0009755238786097269</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V37" t="n">
-        <v>7.510782728659789e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="b">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>-0.9420522376372432</v>
+        <v>-1.518034740984878</v>
       </c>
       <c r="Z37" t="n">
-        <v>-3.395090365790778</v>
+        <v>-3.251538092997248</v>
       </c>
     </row>
     <row r="38">
@@ -3504,32 +3504,32 @@
         <v>0.6482659737168365</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.02778454567447608</v>
+        <v>0.6727849790679036</v>
       </c>
       <c r="R38" t="n">
-        <v>0.6760505193913126</v>
+        <v>-0.0245190053510671</v>
       </c>
       <c r="S38" t="n">
-        <v>-0.01899105693241102</v>
+        <v>-0.006833796152789972</v>
       </c>
       <c r="T38" t="n">
-        <v>0.6570594624589016</v>
+        <v>0.6659511829151136</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0009994529099551332</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V38" t="n">
-        <v>9.903685863200388e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="b">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-0.2781506271687139</v>
+        <v>-0.4299959642050674</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.8836143977111205</v>
+        <v>-0.921025204298526</v>
       </c>
     </row>
     <row r="39">
@@ -3586,32 +3586,32 @@
         <v>0.6527257577460784</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.01550881786904135</v>
+        <v>0.6622309206844731</v>
       </c>
       <c r="R39" t="n">
-        <v>0.6372169398770371</v>
+        <v>-0.009505162938394651</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.005606335636714815</v>
+        <v>-0.002649224346118253</v>
       </c>
       <c r="T39" t="n">
-        <v>0.6316106042403222</v>
+        <v>0.6595816963383548</v>
       </c>
       <c r="U39" t="n">
-        <v>0.001015099547828218</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V39" t="n">
-        <v>0.000114683496505089</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="b">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.6627350289688259</v>
+        <v>-0.1666944333236285</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.971713365537999</v>
+        <v>-0.3570493383377496</v>
       </c>
     </row>
     <row r="40">
@@ -3668,32 +3668,32 @@
         <v>0.5152601235742075</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.04748805104574938</v>
+        <v>0.4938490907090931</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4677720725284581</v>
+        <v>0.02141103286511437</v>
       </c>
       <c r="S40" t="n">
-        <v>-0.004329746265989299</v>
+        <v>0.005967559936878523</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4634423262624688</v>
+        <v>0.4998166506459716</v>
       </c>
       <c r="U40" t="n">
-        <v>0.001002306931971574</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V40" t="n">
-        <v>0.0001018908806484446</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="b">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.636735796882121</v>
+        <v>0.3754906689539503</v>
       </c>
       <c r="Z40" t="n">
-        <v>5.133473092352649</v>
+        <v>0.8042781767146333</v>
       </c>
     </row>
     <row r="41">
@@ -3750,32 +3750,32 @@
         <v>0.3688904091449137</v>
       </c>
       <c r="Q41" t="n">
-        <v>-0.0351567697915775</v>
+        <v>0.4086844262415897</v>
       </c>
       <c r="R41" t="n">
-        <v>0.4040471789364912</v>
+        <v>-0.03979401709667602</v>
       </c>
       <c r="S41" t="n">
-        <v>-0.05433917232833016</v>
+        <v>-0.01109115957384887</v>
       </c>
       <c r="T41" t="n">
-        <v>0.349708006608161</v>
+        <v>0.3975932666677409</v>
       </c>
       <c r="U41" t="n">
-        <v>0.001026498762885914</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V41" t="n">
-        <v>0.0001260827115627851</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="b">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.5987200266255176</v>
+        <v>-0.6978776873711566</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.708343620225398</v>
+        <v>-1.494811563579851</v>
       </c>
     </row>
     <row r="42">
@@ -3832,32 +3832,32 @@
         <v>0.3698789047117971</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.02607108554812199</v>
+        <v>0.3584165578731038</v>
       </c>
       <c r="R42" t="n">
-        <v>0.3438078191636751</v>
+        <v>0.01146234683869324</v>
       </c>
       <c r="S42" t="n">
-        <v>-0.003120722704329244</v>
+        <v>0.003194719386450735</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3406870964593459</v>
+        <v>0.3616112772595546</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0009752192570789267</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V42" t="n">
-        <v>7.480320575579743e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="b">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.9347809719168698</v>
+        <v>0.2010180596767632</v>
       </c>
       <c r="Z42" t="n">
-        <v>3.375210726092702</v>
+        <v>0.4305684585290401</v>
       </c>
     </row>
     <row r="43">
@@ -3914,32 +3914,32 @@
         <v>0.6471051164103925</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.009069436328931091</v>
+        <v>0.6514944664559337</v>
       </c>
       <c r="R43" t="n">
-        <v>0.6561745527393236</v>
+        <v>-0.004389350045541196</v>
       </c>
       <c r="S43" t="n">
-        <v>0.04124406043549467</v>
+        <v>-0.001223374399699924</v>
       </c>
       <c r="T43" t="n">
-        <v>0.6974186131748182</v>
+        <v>0.6502710920562338</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0009746163689248618</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V43" t="n">
-        <v>7.420031760173276e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="b">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>-1.61163856478345</v>
+        <v>-0.07697713582126697</v>
       </c>
       <c r="Z43" t="n">
-        <v>-5.840924862652045</v>
+        <v>-0.1648803434170983</v>
       </c>
     </row>
     <row r="44">
@@ -3996,32 +3996,32 @@
         <v>0.3462241214338994</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.05241744291711525</v>
+        <v>0.3121461174426893</v>
       </c>
       <c r="R44" t="n">
-        <v>0.2938066785167842</v>
+        <v>0.03407800399121014</v>
       </c>
       <c r="S44" t="n">
-        <v>0.02452814409010454</v>
+        <v>0.009498025276347213</v>
       </c>
       <c r="T44" t="n">
-        <v>0.3183348226068887</v>
+        <v>0.3216441427190365</v>
       </c>
       <c r="U44" t="n">
-        <v>0.001001976295788426</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V44" t="n">
-        <v>0.0001015602444652962</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="b">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.8810668717384825</v>
+        <v>0.5976345277649977</v>
       </c>
       <c r="Z44" t="n">
-        <v>2.767424152431134</v>
+        <v>1.280096812183344</v>
       </c>
     </row>
     <row r="45">
@@ -4078,32 +4078,32 @@
         <v>0.6446615519201618</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.01495536205354497</v>
+        <v>0.6937468187007061</v>
       </c>
       <c r="R45" t="n">
-        <v>0.6596169139737068</v>
+        <v>-0.04908526678054426</v>
       </c>
       <c r="S45" t="n">
-        <v>0.002000415041760499</v>
+        <v>-0.01368076324805861</v>
       </c>
       <c r="T45" t="n">
-        <v>0.6616173290154673</v>
+        <v>0.6800660554526475</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0009879917979380537</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V45" t="n">
-        <v>8.757574661492468e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="b">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>-0.5394373696312623</v>
+        <v>-0.8608206701414656</v>
       </c>
       <c r="Z45" t="n">
-        <v>-1.81186474373554</v>
+        <v>-1.843825522984046</v>
       </c>
     </row>
     <row r="46">
@@ -4160,32 +4160,32 @@
         <v>0.6543203401947509</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.05525331018488322</v>
+        <v>0.6527575955682803</v>
       </c>
       <c r="R46" t="n">
-        <v>0.5990670300098677</v>
+        <v>0.001562744626470658</v>
       </c>
       <c r="S46" t="n">
-        <v>0.04052339389994235</v>
+        <v>0.0004355591944157974</v>
       </c>
       <c r="T46" t="n">
-        <v>0.63959042390981</v>
+        <v>0.6531931547626961</v>
       </c>
       <c r="U46" t="n">
-        <v>0.00097567443442588</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V46" t="n">
-        <v>7.525838310275075e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="b">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4715717886629512</v>
+        <v>0.02740624559541724</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.697941944461195</v>
+        <v>0.0587025113020288</v>
       </c>
     </row>
     <row r="47">
@@ -4242,32 +4242,32 @@
         <v>0.6331985183909211</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.01251409313909668</v>
+        <v>0.6121527489861209</v>
       </c>
       <c r="R47" t="n">
-        <v>0.6206844252518244</v>
+        <v>0.02104576940480019</v>
       </c>
       <c r="S47" t="n">
-        <v>0.03059552526336327</v>
+        <v>0.005865755805995414</v>
       </c>
       <c r="T47" t="n">
-        <v>0.6512799505151877</v>
+        <v>0.6180185047921164</v>
       </c>
       <c r="U47" t="n">
-        <v>0.000984874483190212</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V47" t="n">
-        <v>8.445843186708274e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="b">
         <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>-0.5761590429483513</v>
+        <v>0.3690849517742752</v>
       </c>
       <c r="Z47" t="n">
-        <v>-1.967484495278363</v>
+        <v>0.7905575200917372</v>
       </c>
     </row>
     <row r="48">
@@ -4324,32 +4324,32 @@
         <v>0.6300320516664977</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.02680504199959211</v>
+        <v>0.6638528824778624</v>
       </c>
       <c r="R48" t="n">
-        <v>0.6032270096669056</v>
+        <v>-0.03382083081136478</v>
       </c>
       <c r="S48" t="n">
-        <v>0.04406608305371035</v>
+        <v>-0.00942634744658062</v>
       </c>
       <c r="T48" t="n">
-        <v>0.647293092720616</v>
+        <v>0.6544265350312818</v>
       </c>
       <c r="U48" t="n">
-        <v>0.001015391164187115</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V48" t="n">
-        <v>0.0001149751128639854</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="b">
         <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>-0.5416893480168222</v>
+        <v>-0.593124417026784</v>
       </c>
       <c r="Z48" t="n">
-        <v>-1.609774572804532</v>
+        <v>-1.27043642927312</v>
       </c>
     </row>
     <row r="49">
@@ -4406,32 +4406,32 @@
         <v>0.3355694201678956</v>
       </c>
       <c r="Q49" t="n">
-        <v>-0.03495384698671544</v>
+        <v>0.3768109967676485</v>
       </c>
       <c r="R49" t="n">
-        <v>0.370523267154611</v>
+        <v>-0.04124157659975292</v>
       </c>
       <c r="S49" t="n">
-        <v>-0.006309754771709484</v>
+        <v>-0.01149461503305514</v>
       </c>
       <c r="T49" t="n">
-        <v>0.3642135123829016</v>
+        <v>0.3653163817345934</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0009865549665142501</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V49" t="n">
-        <v>8.613891519112074e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="b">
         <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>-0.9119571224904787</v>
+        <v>-0.7232639024869097</v>
       </c>
       <c r="Z49" t="n">
-        <v>-3.086280281861957</v>
+        <v>-1.549187292446465</v>
       </c>
     </row>
     <row r="50">
@@ -4488,32 +4488,32 @@
         <v>0.3526098265735486</v>
       </c>
       <c r="Q50" t="n">
-        <v>-0.04310378575309787</v>
+        <v>0.4212610387918073</v>
       </c>
       <c r="R50" t="n">
-        <v>0.3957136123266465</v>
+        <v>-0.06865121221825865</v>
       </c>
       <c r="S50" t="n">
-        <v>-0.03371711008447957</v>
+        <v>-0.01913407102891224</v>
       </c>
       <c r="T50" t="n">
-        <v>0.3619965022421669</v>
+        <v>0.402126967762895</v>
       </c>
       <c r="U50" t="n">
-        <v>0.0009869931390713805</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V50" t="n">
-        <v>8.65770877482515e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="b">
         <v>0</v>
       </c>
       <c r="Y50" t="n">
-        <v>-0.2987822169400012</v>
+        <v>-1.203953576781312</v>
       </c>
       <c r="Z50" t="n">
-        <v>-1.008812200010734</v>
+        <v>-2.578795340721203</v>
       </c>
     </row>
     <row r="51">
@@ -4570,32 +4570,32 @@
         <v>0.5829229180219461</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.029568027400662</v>
+        <v>0.5624584630666963</v>
       </c>
       <c r="R51" t="n">
-        <v>0.5533548906212841</v>
+        <v>0.02046445495524973</v>
       </c>
       <c r="S51" t="n">
-        <v>0.02327603702443217</v>
+        <v>0.005703735185987672</v>
       </c>
       <c r="T51" t="n">
-        <v>0.5766309276457162</v>
+        <v>0.568162198252684</v>
       </c>
       <c r="U51" t="n">
-        <v>0.001010970145839935</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V51" t="n">
-        <v>0.0001105540945168058</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="b">
         <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.1978877379853353</v>
+        <v>0.3588902940522173</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.5984124682949504</v>
+        <v>0.7687211832587385</v>
       </c>
     </row>
     <row r="52">
@@ -4652,32 +4652,32 @@
         <v>0.6129050348989317</v>
       </c>
       <c r="Q52" t="n">
-        <v>-0.008688468480164913</v>
+        <v>0.6004046036985637</v>
       </c>
       <c r="R52" t="n">
-        <v>0.6215935033790966</v>
+        <v>0.01250043120036792</v>
       </c>
       <c r="S52" t="n">
-        <v>0.03123079432661986</v>
+        <v>0.003484048289300027</v>
       </c>
       <c r="T52" t="n">
-        <v>0.6528242977057165</v>
+        <v>0.6038886519878638</v>
       </c>
       <c r="U52" t="n">
-        <v>0.0009985703162086225</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V52" t="n">
-        <v>9.81542648854932e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="b">
         <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>-1.263261284928046</v>
+        <v>0.2192232062408639</v>
       </c>
       <c r="Z52" t="n">
-        <v>-4.029284425389063</v>
+        <v>0.4695627752884621</v>
       </c>
     </row>
     <row r="53">
@@ -4734,32 +4734,32 @@
         <v>0.3546573867831835</v>
       </c>
       <c r="Q53" t="n">
-        <v>-0.02903403658144027</v>
+        <v>0.3673076680711319</v>
       </c>
       <c r="R53" t="n">
-        <v>0.3836914233646238</v>
+        <v>-0.01265028128794832</v>
       </c>
       <c r="S53" t="n">
-        <v>-0.04103269185010172</v>
+        <v>-0.003525813643677393</v>
       </c>
       <c r="T53" t="n">
-        <v>0.3426587315145221</v>
+        <v>0.3637818544274545</v>
       </c>
       <c r="U53" t="n">
-        <v>0.0009792075883192253</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V53" t="n">
-        <v>7.879153699609604e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="b">
         <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.3834380352876388</v>
+        <v>-0.2218511649236499</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.351738830534677</v>
+        <v>-0.4751917029626453</v>
       </c>
     </row>
     <row r="54">
@@ -4816,32 +4816,32 @@
         <v>0.6502894192080279</v>
       </c>
       <c r="Q54" t="n">
-        <v>-0.02288771471603546</v>
+        <v>0.6933969702871595</v>
       </c>
       <c r="R54" t="n">
-        <v>0.6731771339240633</v>
+        <v>-0.04310755107913167</v>
       </c>
       <c r="S54" t="n">
-        <v>-0.0001606538860794611</v>
+        <v>-0.01201468870798506</v>
       </c>
       <c r="T54" t="n">
-        <v>0.6730164800379839</v>
+        <v>0.6813822815791745</v>
       </c>
       <c r="U54" t="n">
-        <v>0.0009792853423416315</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V54" t="n">
-        <v>7.886929101850226e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="b">
         <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>-0.7262541837856304</v>
+        <v>-0.7559879662876218</v>
       </c>
       <c r="Z54" t="n">
-        <v>-2.559112074619067</v>
+        <v>-1.619280246930928</v>
       </c>
     </row>
     <row r="55">
@@ -4898,32 +4898,32 @@
         <v>0.6443175978736291</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.01139355810744946</v>
+        <v>0.6590081349133005</v>
       </c>
       <c r="R55" t="n">
-        <v>0.6329240397661796</v>
+        <v>-0.01469053703967138</v>
       </c>
       <c r="S55" t="n">
-        <v>-0.004611549400377581</v>
+        <v>-0.004094461992474099</v>
       </c>
       <c r="T55" t="n">
-        <v>0.6283124903658021</v>
+        <v>0.6549136729208264</v>
       </c>
       <c r="U55" t="n">
-        <v>0.001000797869984208</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V55" t="n">
-        <v>0.0001003818186610784</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="b">
         <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.5059241486023591</v>
+        <v>-0.2576316432351123</v>
       </c>
       <c r="Z55" t="n">
-        <v>1.597463948596824</v>
+        <v>-0.5518313114474295</v>
       </c>
     </row>
     <row r="56">
@@ -4980,32 +4980,32 @@
         <v>0.6825587735715635</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.01148985774941036</v>
+        <v>0.6386457126059086</v>
       </c>
       <c r="R56" t="n">
-        <v>0.6710689158221531</v>
+        <v>0.04391306096565484</v>
       </c>
       <c r="S56" t="n">
-        <v>0.02710685863655506</v>
+        <v>0.01223919579093407</v>
       </c>
       <c r="T56" t="n">
-        <v>0.6981757744587082</v>
+        <v>0.6508849083968427</v>
       </c>
       <c r="U56" t="n">
-        <v>0.0009857285597017892</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V56" t="n">
-        <v>8.531250837866008e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="b">
         <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>-0.4974151001908877</v>
+        <v>0.7701143957761164</v>
       </c>
       <c r="Z56" t="n">
-        <v>-1.690796263008481</v>
+        <v>1.649538199769399</v>
       </c>
     </row>
     <row r="57">
@@ -5062,32 +5062,32 @@
         <v>0.647798967980438</v>
       </c>
       <c r="Q57" t="n">
-        <v>-0.09324088875331271</v>
+        <v>0.6490563427414587</v>
       </c>
       <c r="R57" t="n">
-        <v>0.7410398567337507</v>
+        <v>-0.001257374761020724</v>
       </c>
       <c r="S57" t="n">
-        <v>-0.02431085639491946</v>
+        <v>-0.0003504482616358337</v>
       </c>
       <c r="T57" t="n">
-        <v>0.7167290003388312</v>
+        <v>0.6487058944798229</v>
       </c>
       <c r="U57" t="n">
-        <v>0.0009979773648534395</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V57" t="n">
-        <v>9.75613135303102e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="b">
         <v>0</v>
       </c>
       <c r="Y57" t="n">
-        <v>-2.181966792725683</v>
+        <v>-0.02205089745865731</v>
       </c>
       <c r="Z57" t="n">
-        <v>-6.978621802620154</v>
+        <v>-0.04723168128885047</v>
       </c>
     </row>
     <row r="58">
@@ -5144,32 +5144,32 @@
         <v>0.3542122085898285</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.0268382399328263</v>
+        <v>0.3151534630244056</v>
       </c>
       <c r="R58" t="n">
-        <v>0.3273739686570022</v>
+        <v>0.03905874556542294</v>
       </c>
       <c r="S58" t="n">
-        <v>0.03940940694387778</v>
+        <v>0.01088622892168298</v>
       </c>
       <c r="T58" t="n">
-        <v>0.36678337560088</v>
+        <v>0.3260396919460886</v>
       </c>
       <c r="U58" t="n">
-        <v>0.001023590681883639</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V58" t="n">
-        <v>0.0001231746305605104</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="b">
         <v>0</v>
       </c>
       <c r="Y58" t="n">
-        <v>-0.392927508364387</v>
+        <v>0.6849830455773415</v>
       </c>
       <c r="Z58" t="n">
-        <v>-1.132700160257755</v>
+        <v>1.467192025069855</v>
       </c>
     </row>
     <row r="59">
@@ -5226,32 +5226,32 @@
         <v>0.6315403355789659</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.004349710615871416</v>
+        <v>0.5834972944232244</v>
       </c>
       <c r="R59" t="n">
-        <v>0.6271906249630945</v>
+        <v>0.04804304115574154</v>
       </c>
       <c r="S59" t="n">
-        <v>0.04610240749836887</v>
+        <v>0.01339028011635383</v>
       </c>
       <c r="T59" t="n">
-        <v>0.6732930324614634</v>
+        <v>0.5968875745395782</v>
       </c>
       <c r="U59" t="n">
-        <v>0.000977683883788427</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V59" t="n">
-        <v>7.726783246529788e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="b">
         <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>-1.335319848317905</v>
+        <v>0.8425428971997089</v>
       </c>
       <c r="Z59" t="n">
-        <v>-4.749907670851419</v>
+        <v>1.804675644940597</v>
       </c>
     </row>
     <row r="60">
@@ -5308,32 +5308,32 @@
         <v>0.3619925890577547</v>
       </c>
       <c r="Q60" t="n">
-        <v>-0.001041783336497182</v>
+        <v>0.3110698761450905</v>
       </c>
       <c r="R60" t="n">
-        <v>0.3630343723942518</v>
+        <v>0.05092271291266415</v>
       </c>
       <c r="S60" t="n">
-        <v>-0.004784187809567776</v>
+        <v>0.01419288566630393</v>
       </c>
       <c r="T60" t="n">
-        <v>0.3582501845846841</v>
+        <v>0.3252627618113945</v>
       </c>
       <c r="U60" t="n">
-        <v>0.0009743129371463487</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V60" t="n">
-        <v>7.389688582321938e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="b">
         <v>0</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.1198951150935116</v>
+        <v>0.8930444251359401</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.4353491042556316</v>
+        <v>1.912846846432788</v>
       </c>
     </row>
     <row r="61">
@@ -5390,32 +5390,32 @@
         <v>0.6229167204881373</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.05195618185698758</v>
+        <v>0.533945579222537</v>
       </c>
       <c r="R61" t="n">
-        <v>0.5709605386311497</v>
+        <v>0.08897114126560024</v>
       </c>
       <c r="S61" t="n">
-        <v>0.04764412623130525</v>
+        <v>0.02479752478516657</v>
       </c>
       <c r="T61" t="n">
-        <v>0.6186046648624549</v>
+        <v>0.5587431040077037</v>
       </c>
       <c r="U61" t="n">
-        <v>0.0009894816262825473</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V61" t="n">
-        <v>8.906557495941805e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="b">
         <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.1370820175052478</v>
+        <v>1.560309283631122</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.4569086886197947</v>
+        <v>3.342087592338163</v>
       </c>
     </row>
     <row r="62">
@@ -5472,32 +5472,32 @@
         <v>0.4514335917425961</v>
       </c>
       <c r="Q62" t="n">
-        <v>-0.0721439332550694</v>
+        <v>0.5383706999313372</v>
       </c>
       <c r="R62" t="n">
-        <v>0.5235775249976655</v>
+        <v>-0.08693710818874112</v>
       </c>
       <c r="S62" t="n">
-        <v>-0.02898427318334645</v>
+        <v>-0.02423061078433336</v>
       </c>
       <c r="T62" t="n">
-        <v>0.4945932518143191</v>
+        <v>0.5141400891470039</v>
       </c>
       <c r="U62" t="n">
-        <v>0.0009939605295291394</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V62" t="n">
-        <v>9.354447820601035e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="b">
         <v>0</v>
       </c>
       <c r="Y62" t="n">
-        <v>-1.368968471577638</v>
+        <v>-1.524637933938474</v>
       </c>
       <c r="Z62" t="n">
-        <v>-4.462404522662976</v>
+        <v>-3.265681730718014</v>
       </c>
     </row>
     <row r="63">
@@ -5554,32 +5554,32 @@
         <v>0.6534204545599395</v>
       </c>
       <c r="Q63" t="n">
-        <v>-0.03929996320057538</v>
+        <v>0.6536062476078114</v>
       </c>
       <c r="R63" t="n">
-        <v>0.6927204177605149</v>
+        <v>-0.0001857930478719183</v>
       </c>
       <c r="S63" t="n">
-        <v>-0.03127360650648876</v>
+        <v>-5.17831696402858e-05</v>
       </c>
       <c r="T63" t="n">
-        <v>0.661446811254026</v>
+        <v>0.6535544644381711</v>
       </c>
       <c r="U63" t="n">
-        <v>0.001068745766291085</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V63" t="n">
-        <v>0.0001683297149679557</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="b">
         <v>0</v>
       </c>
       <c r="Y63" t="n">
-        <v>-0.2455168211287967</v>
+        <v>-0.003258299416035938</v>
       </c>
       <c r="Z63" t="n">
-        <v>-0.6186400923590271</v>
+        <v>-0.006979079189424873</v>
       </c>
     </row>
     <row r="64">
@@ -5636,32 +5636,32 @@
         <v>0.3497742126078224</v>
       </c>
       <c r="Q64" t="n">
-        <v>-0.007804342552478305</v>
+        <v>0.367398627161425</v>
       </c>
       <c r="R64" t="n">
-        <v>0.3575785551603007</v>
+        <v>-0.01762441455360253</v>
       </c>
       <c r="S64" t="n">
-        <v>-0.01578162988572285</v>
+        <v>-0.004912175459258723</v>
       </c>
       <c r="T64" t="n">
-        <v>0.3417969252745779</v>
+        <v>0.3624864517021663</v>
       </c>
       <c r="U64" t="n">
-        <v>0.0009975461217792115</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V64" t="n">
-        <v>9.71300704560825e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="b">
         <v>0</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.2525740585608802</v>
+        <v>-0.3090837911665895</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.8094282976348373</v>
+        <v>-0.6620386831556597</v>
       </c>
     </row>
     <row r="65">
@@ -5718,32 +5718,32 @@
         <v>0.3534369413330325</v>
       </c>
       <c r="Q65" t="n">
-        <v>-0.001470069664088025</v>
+        <v>0.335691289589919</v>
       </c>
       <c r="R65" t="n">
-        <v>0.3549070109971205</v>
+        <v>0.01774565174311354</v>
       </c>
       <c r="S65" t="n">
-        <v>0.005868842197176231</v>
+        <v>0.004945965991621358</v>
       </c>
       <c r="T65" t="n">
-        <v>0.3607758531942967</v>
+        <v>0.3406372555815403</v>
       </c>
       <c r="U65" t="n">
-        <v>0.0009937300977654931</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V65" t="n">
-        <v>9.331404644236393e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="b">
         <v>0</v>
       </c>
       <c r="Y65" t="n">
-        <v>-0.2328077588402532</v>
+        <v>0.3112099582497977</v>
       </c>
       <c r="Z65" t="n">
-        <v>-0.7597280489320606</v>
+        <v>0.6665928037409655</v>
       </c>
     </row>
     <row r="66">
@@ -5800,32 +5800,32 @@
         <v>0.6494584463394929</v>
       </c>
       <c r="Q66" t="n">
-        <v>-0.02657821332091048</v>
+        <v>0.627951408962811</v>
       </c>
       <c r="R66" t="n">
-        <v>0.6760366596604034</v>
+        <v>0.02150703737668191</v>
       </c>
       <c r="S66" t="n">
-        <v>0.003311872519397387</v>
+        <v>0.005994317762182441</v>
       </c>
       <c r="T66" t="n">
-        <v>0.6793485321798007</v>
+        <v>0.6339457267249934</v>
       </c>
       <c r="U66" t="n">
-        <v>0.001019452133926728</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V66" t="n">
-        <v>0.0001190360826035989</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="b">
         <v>0</v>
       </c>
       <c r="Y66" t="n">
-        <v>-0.9361463377062067</v>
+        <v>0.3771743242217013</v>
       </c>
       <c r="Z66" t="n">
-        <v>-2.73960436328278</v>
+        <v>0.8078844639034337</v>
       </c>
     </row>
     <row r="67">
@@ -5882,32 +5882,32 @@
         <v>0.3522336281209091</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.03574685856536119</v>
+        <v>0.3233762921482912</v>
       </c>
       <c r="R67" t="n">
-        <v>0.3164867695555479</v>
+        <v>0.02885733597261791</v>
       </c>
       <c r="S67" t="n">
-        <v>0.002844866517683609</v>
+        <v>0.008042950712346571</v>
       </c>
       <c r="T67" t="n">
-        <v>0.3193316360732315</v>
+        <v>0.3314192428606377</v>
       </c>
       <c r="U67" t="n">
-        <v>0.001001193989043273</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V67" t="n">
-        <v>0.0001007779377201442</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="b">
         <v>0</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.039831755601324</v>
+        <v>0.5060783595479349</v>
       </c>
       <c r="Z67" t="n">
-        <v>3.277475543109506</v>
+        <v>1.08398906802625</v>
       </c>
     </row>
     <row r="68">
@@ -5964,32 +5964,32 @@
         <v>0.6404945272366523</v>
       </c>
       <c r="Q68" t="n">
-        <v>-0.06852463610246184</v>
+        <v>0.6594718996922188</v>
       </c>
       <c r="R68" t="n">
-        <v>0.7090191633391142</v>
+        <v>-0.01897737245556641</v>
       </c>
       <c r="S68" t="n">
-        <v>-0.02390182476579956</v>
+        <v>-0.005289264104294263</v>
       </c>
       <c r="T68" t="n">
-        <v>0.6851173385733146</v>
+        <v>0.6541826355879244</v>
       </c>
       <c r="U68" t="n">
-        <v>0.001035601596642179</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V68" t="n">
-        <v>0.0001351855453190495</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="b">
         <v>0</v>
       </c>
       <c r="Y68" t="n">
-        <v>-1.386629938234352</v>
+        <v>-0.3328109542081121</v>
       </c>
       <c r="Z68" t="n">
-        <v>-3.837883608075237</v>
+        <v>-0.7128608233777034</v>
       </c>
     </row>
     <row r="69">
@@ -6046,32 +6046,32 @@
         <v>0.6125228097696945</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.05007537930603045</v>
+        <v>0.5403044953060199</v>
       </c>
       <c r="R69" t="n">
-        <v>0.5624474304636641</v>
+        <v>0.07221831446367466</v>
       </c>
       <c r="S69" t="n">
-        <v>0.04072070294730391</v>
+        <v>0.02012827325111415</v>
       </c>
       <c r="T69" t="n">
-        <v>0.603168133410968</v>
+        <v>0.560432768557134</v>
       </c>
       <c r="U69" t="n">
-        <v>0.0009834773031053106</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V69" t="n">
-        <v>8.30612517821812e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="b">
         <v>0</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.2982954274260139</v>
+        <v>1.266510746101819</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.02643045868196</v>
+        <v>2.712788992871574</v>
       </c>
     </row>
     <row r="70">
@@ -6128,32 +6128,32 @@
         <v>0.3682144615046286</v>
       </c>
       <c r="Q70" t="n">
-        <v>-0.07585707268615782</v>
+        <v>0.4508291154352342</v>
       </c>
       <c r="R70" t="n">
-        <v>0.4440715341907864</v>
+        <v>-0.08261465393060557</v>
       </c>
       <c r="S70" t="n">
-        <v>-0.05298711456285039</v>
+        <v>-0.02302588119366207</v>
       </c>
       <c r="T70" t="n">
-        <v>0.3910844196279361</v>
+        <v>0.4278032342415721</v>
       </c>
       <c r="U70" t="n">
-        <v>0.0009836625756773809</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V70" t="n">
-        <v>8.324652435425196e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="b">
         <v>0</v>
       </c>
       <c r="Y70" t="n">
-        <v>-0.7291926711840636</v>
+        <v>-1.448833966369754</v>
       </c>
       <c r="Z70" t="n">
-        <v>-2.506584294989856</v>
+        <v>-3.103314242349395</v>
       </c>
     </row>
     <row r="71">
@@ -6210,32 +6210,32 @@
         <v>0.5510095100187038</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.008986379585473436</v>
+        <v>0.5281887541905592</v>
       </c>
       <c r="R71" t="n">
-        <v>0.5420231304332304</v>
+        <v>0.02282075582814458</v>
       </c>
       <c r="S71" t="n">
-        <v>0.01184541806006291</v>
+        <v>0.006360469813255993</v>
       </c>
       <c r="T71" t="n">
-        <v>0.5538685484932933</v>
+        <v>0.5345492240038152</v>
       </c>
       <c r="U71" t="n">
-        <v>0.001003041624648465</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V71" t="n">
-        <v>0.0001026255733253357</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="b">
         <v>0</v>
       </c>
       <c r="Y71" t="n">
-        <v>-0.09027355008707043</v>
+        <v>0.4002133351497323</v>
       </c>
       <c r="Z71" t="n">
-        <v>-0.2822228684366232</v>
+        <v>0.8572326241496683</v>
       </c>
     </row>
     <row r="72">
@@ -6292,32 +6292,32 @@
         <v>0.3612287763972044</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.002466288202676525</v>
+        <v>0.3866581560340799</v>
       </c>
       <c r="R72" t="n">
-        <v>0.3587624881945279</v>
+        <v>-0.02542937963687547</v>
       </c>
       <c r="S72" t="n">
-        <v>-0.04367033031022725</v>
+        <v>-0.007087530437805324</v>
       </c>
       <c r="T72" t="n">
-        <v>0.3150921578843006</v>
+        <v>0.3795706255962746</v>
       </c>
       <c r="U72" t="n">
-        <v>0.0009802422079610176</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V72" t="n">
-        <v>7.982615663788867e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="b">
         <v>0</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.473598128450776</v>
+        <v>-0.4459614270452887</v>
       </c>
       <c r="Z72" t="n">
-        <v>5.163844439180953</v>
+        <v>-0.9552222547320568</v>
       </c>
     </row>
     <row r="73">
@@ -6374,32 +6374,32 @@
         <v>0.6487485438423817</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.104624591273072</v>
+        <v>0.5860884594374853</v>
       </c>
       <c r="R73" t="n">
-        <v>0.5441239525693097</v>
+        <v>0.06266008440489634</v>
       </c>
       <c r="S73" t="n">
-        <v>0.04652927029608145</v>
+        <v>0.01746425834231996</v>
       </c>
       <c r="T73" t="n">
-        <v>0.5906532228653911</v>
+        <v>0.6035527177798052</v>
       </c>
       <c r="U73" t="n">
-        <v>0.0009691676941327815</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V73" t="n">
-        <v>6.875164280965237e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="b">
         <v>0</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.866129124747645</v>
+        <v>1.098885661342097</v>
       </c>
       <c r="Z73" t="n">
-        <v>7.006475625764929</v>
+        <v>2.353746255757065</v>
       </c>
     </row>
     <row r="74">
@@ -6456,32 +6456,32 @@
         <v>0.3582876649455185</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.07687882859235196</v>
+        <v>0.3142285398435232</v>
       </c>
       <c r="R74" t="n">
-        <v>0.2814088363531665</v>
+        <v>0.04405912510199528</v>
       </c>
       <c r="S74" t="n">
-        <v>0.04524568392748329</v>
+        <v>0.01227990594694185</v>
       </c>
       <c r="T74" t="n">
-        <v>0.3266545202806498</v>
+        <v>0.3265084457904651</v>
       </c>
       <c r="U74" t="n">
-        <v>0.001085233075633756</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V74" t="n">
-        <v>0.0001848170243106271</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="b">
         <v>0</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.9602423515219406</v>
+        <v>0.7726759592752002</v>
       </c>
       <c r="Z74" t="n">
-        <v>2.326866037189629</v>
+        <v>1.655024912998042</v>
       </c>
     </row>
     <row r="75">
@@ -6538,32 +6538,32 @@
         <v>0.3601553219598319</v>
       </c>
       <c r="Q75" t="n">
-        <v>-0.04746846122122383</v>
+        <v>0.3961718684797449</v>
       </c>
       <c r="R75" t="n">
-        <v>0.4076237831810557</v>
+        <v>-0.03601654651991298</v>
       </c>
       <c r="S75" t="n">
-        <v>-0.05068358391873723</v>
+        <v>-0.01003832470043149</v>
       </c>
       <c r="T75" t="n">
-        <v>0.3569401992623185</v>
+        <v>0.3861335437793134</v>
       </c>
       <c r="U75" t="n">
-        <v>0.0009719737997874767</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V75" t="n">
-        <v>7.155774846434768e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="b">
         <v>0</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.1031264984990664</v>
+        <v>-0.6316312357045406</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.3800749243976515</v>
+        <v>-1.352915693014891</v>
       </c>
     </row>
     <row r="76">
@@ -6620,32 +6620,32 @@
         <v>0.6970370394816691</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.01514187829359115</v>
+        <v>0.7437017058421981</v>
       </c>
       <c r="R76" t="n">
-        <v>0.6818951611880779</v>
+        <v>-0.04666466636052902</v>
       </c>
       <c r="S76" t="n">
-        <v>-0.01853862355849384</v>
+        <v>-0.0130061074208292</v>
       </c>
       <c r="T76" t="n">
-        <v>0.663356537629584</v>
+        <v>0.7306955984213689</v>
       </c>
       <c r="U76" t="n">
-        <v>0.0009864546082647106</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V76" t="n">
-        <v>8.603855694158125e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="b">
         <v>0</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.072358506142767</v>
+        <v>-0.8183699917125825</v>
       </c>
       <c r="Z76" t="n">
-        <v>3.6310480430661</v>
+        <v>-1.752898751508751</v>
       </c>
     </row>
     <row r="77">
@@ -6702,32 +6702,32 @@
         <v>0.6470232929741072</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.04859277458150779</v>
+        <v>0.5924256844566448</v>
       </c>
       <c r="R77" t="n">
-        <v>0.5984305183925994</v>
+        <v>0.05459760851746243</v>
       </c>
       <c r="S77" t="n">
-        <v>0.04862415979141392</v>
+        <v>0.01521713143348482</v>
       </c>
       <c r="T77" t="n">
-        <v>0.6470546781840133</v>
+        <v>0.6076428158901296</v>
       </c>
       <c r="U77" t="n">
-        <v>0.0009718776673998979</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V77" t="n">
-        <v>7.146161607676889e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="b">
         <v>0</v>
       </c>
       <c r="Y77" t="n">
-        <v>-0.001006744431804188</v>
+        <v>0.9574919937181283</v>
       </c>
       <c r="Z77" t="n">
-        <v>-0.003712689423965325</v>
+        <v>2.050889618833426</v>
       </c>
     </row>
     <row r="78">
@@ -6784,32 +6784,32 @@
         <v>0.3551128039724303</v>
       </c>
       <c r="Q78" t="n">
-        <v>-0.03003061305066174</v>
+        <v>0.3928989371936654</v>
       </c>
       <c r="R78" t="n">
-        <v>0.3851434170230921</v>
+        <v>-0.03778613322123509</v>
       </c>
       <c r="S78" t="n">
-        <v>-0.04638333212175011</v>
+        <v>-0.01053153372822597</v>
       </c>
       <c r="T78" t="n">
-        <v>0.338760084901342</v>
+        <v>0.3823674034654395</v>
       </c>
       <c r="U78" t="n">
-        <v>0.0009968184459114226</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V78" t="n">
-        <v>9.640239458829343e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="b">
         <v>0</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.5179429701928286</v>
+        <v>-0.6626649227966783</v>
       </c>
       <c r="Z78" t="n">
-        <v>1.665505476487827</v>
+        <v>-1.419387963393088</v>
       </c>
     </row>
     <row r="79">
@@ -6866,32 +6866,32 @@
         <v>0.6411954127831023</v>
       </c>
       <c r="Q79" t="n">
-        <v>-0.01027328471533562</v>
+        <v>0.6899219950710214</v>
       </c>
       <c r="R79" t="n">
-        <v>0.6514686974984379</v>
+        <v>-0.04872658228791904</v>
       </c>
       <c r="S79" t="n">
-        <v>0.01623070207121997</v>
+        <v>-0.01358079276921151</v>
       </c>
       <c r="T79" t="n">
-        <v>0.667699399569658</v>
+        <v>0.6763412023018098</v>
       </c>
       <c r="U79" t="n">
-        <v>0.0009854993001158659</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V79" t="n">
-        <v>8.508324879273679e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="b">
         <v>0</v>
       </c>
       <c r="Y79" t="n">
-        <v>-0.8442732830165331</v>
+        <v>-0.8545303299729843</v>
       </c>
       <c r="Z79" t="n">
-        <v>-2.873354260089179</v>
+        <v>-1.830351996902253</v>
       </c>
     </row>
     <row r="80">
@@ -6948,32 +6948,32 @@
         <v>0.3474635479234142</v>
       </c>
       <c r="Q80" t="n">
-        <v>-0.002371184523584147</v>
+        <v>0.3569230970499717</v>
       </c>
       <c r="R80" t="n">
-        <v>0.3498347324469984</v>
+        <v>-0.009459549126557443</v>
       </c>
       <c r="S80" t="n">
-        <v>0.02196052307950867</v>
+        <v>-0.002636511126826189</v>
       </c>
       <c r="T80" t="n">
-        <v>0.3717952555265071</v>
+        <v>0.3542865859231455</v>
       </c>
       <c r="U80" t="n">
-        <v>0.001017901753864823</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V80" t="n">
-        <v>0.0001174857025416933</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="b">
         <v>0</v>
       </c>
       <c r="Y80" t="n">
-        <v>-0.7626401361111096</v>
+        <v>-0.1658944924320196</v>
       </c>
       <c r="Z80" t="n">
-        <v>-2.244812539955463</v>
+        <v>-0.3553359135978619</v>
       </c>
     </row>
     <row r="81">
@@ -7030,32 +7030,32 @@
         <v>0.6417896381031065</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.02407325265489701</v>
+        <v>0.66465515762356</v>
       </c>
       <c r="R81" t="n">
-        <v>0.6177163854482095</v>
+        <v>-0.02286551952045346</v>
       </c>
       <c r="S81" t="n">
-        <v>0.003982585157988689</v>
+        <v>-0.006372946091937001</v>
       </c>
       <c r="T81" t="n">
-        <v>0.6216989706061982</v>
+        <v>0.658282211531623</v>
       </c>
       <c r="U81" t="n">
-        <v>0.0009847471475036345</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V81" t="n">
-        <v>8.433109618050543e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="b">
         <v>0</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.6402240735504342</v>
+        <v>-0.400998367285851</v>
       </c>
       <c r="Z81" t="n">
-        <v>2.187764108999888</v>
+        <v>-0.8589141152420005</v>
       </c>
     </row>
     <row r="82">
@@ -7112,32 +7112,32 @@
         <v>0.652301531454171</v>
       </c>
       <c r="Q82" t="n">
-        <v>-0.003105192187784267</v>
+        <v>0.6367090352927788</v>
       </c>
       <c r="R82" t="n">
-        <v>0.6554067236419553</v>
+        <v>0.01559249616139224</v>
       </c>
       <c r="S82" t="n">
-        <v>-0.001124510001626714</v>
+        <v>0.004345850851539438</v>
       </c>
       <c r="T82" t="n">
-        <v>0.6542822136403286</v>
+        <v>0.6410548861443183</v>
       </c>
       <c r="U82" t="n">
-        <v>0.0009791450370952952</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V82" t="n">
-        <v>7.872898577216585e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="b">
         <v>0</v>
       </c>
       <c r="Y82" t="n">
-        <v>-0.06329818861915724</v>
+        <v>0.2734495272215191</v>
       </c>
       <c r="Z82" t="n">
-        <v>-0.2232273827230457</v>
+        <v>0.5857122569513805</v>
       </c>
     </row>
     <row r="83">
@@ -7194,32 +7194,32 @@
         <v>0.6439516068578325</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.01638531614391514</v>
+        <v>0.5962353080916585</v>
       </c>
       <c r="R83" t="n">
-        <v>0.6275662907139173</v>
+        <v>0.047716298766174</v>
       </c>
       <c r="S83" t="n">
-        <v>0.01964442271485775</v>
+        <v>0.0132992123567592</v>
       </c>
       <c r="T83" t="n">
-        <v>0.6472107134287751</v>
+        <v>0.6095345204484177</v>
       </c>
       <c r="U83" t="n">
-        <v>0.001007162631291385</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V83" t="n">
-        <v>0.0001067465799682556</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="b">
         <v>0</v>
       </c>
       <c r="Y83" t="n">
-        <v>-0.1026948724854468</v>
+        <v>0.8368127337270723</v>
       </c>
       <c r="Z83" t="n">
-        <v>-0.3154434958276103</v>
+        <v>1.792401983273084</v>
       </c>
     </row>
     <row r="84">
@@ -7276,32 +7276,32 @@
         <v>0.3506102973124023</v>
       </c>
       <c r="Q84" t="n">
-        <v>-0.03159668499469864</v>
+        <v>0.3793497597410322</v>
       </c>
       <c r="R84" t="n">
-        <v>0.382206982307101</v>
+        <v>-0.0287394624286299</v>
       </c>
       <c r="S84" t="n">
-        <v>-0.02245662136387813</v>
+        <v>-0.008010097675918443</v>
       </c>
       <c r="T84" t="n">
-        <v>0.3597503609432229</v>
+        <v>0.3713396620651138</v>
       </c>
       <c r="U84" t="n">
-        <v>0.001009597594211628</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V84" t="n">
-        <v>0.0001091815428884991</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="b">
         <v>0</v>
       </c>
       <c r="Y84" t="n">
-        <v>-0.2876570787150379</v>
+        <v>-0.5040111815623347</v>
       </c>
       <c r="Z84" t="n">
-        <v>-0.8747311764957354</v>
+        <v>-1.079561298500485</v>
       </c>
     </row>
     <row r="85">
@@ -7358,32 +7358,32 @@
         <v>0.3432122450658466</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.0232562465651362</v>
+        <v>0.3539491862222441</v>
       </c>
       <c r="R85" t="n">
-        <v>0.3199559985007104</v>
+        <v>-0.01073694115639751</v>
       </c>
       <c r="S85" t="n">
-        <v>0.02821745224445797</v>
+        <v>-0.00299253848659281</v>
       </c>
       <c r="T85" t="n">
-        <v>0.3481734507451684</v>
+        <v>0.3509566477356513</v>
       </c>
       <c r="U85" t="n">
-        <v>0.001024477703688121</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V85" t="n">
-        <v>0.000124061652364992</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="b">
         <v>0</v>
       </c>
       <c r="Y85" t="n">
-        <v>-0.1550015270063864</v>
+        <v>-0.1882964377667291</v>
       </c>
       <c r="Z85" t="n">
-        <v>-0.445418705677092</v>
+        <v>-0.4033195180875667</v>
       </c>
     </row>
     <row r="86">
@@ -7440,32 +7440,32 @@
         <v>0.3791605068226172</v>
       </c>
       <c r="Q86" t="n">
-        <v>-0.04831947267590903</v>
+        <v>0.4153517534738319</v>
       </c>
       <c r="R86" t="n">
-        <v>0.4274799794985262</v>
+        <v>-0.0361912466512147</v>
       </c>
       <c r="S86" t="n">
-        <v>-0.0379020856640658</v>
+        <v>-0.01008701611625786</v>
       </c>
       <c r="T86" t="n">
-        <v>0.3895778938344604</v>
+        <v>0.4052647373575741</v>
       </c>
       <c r="U86" t="n">
-        <v>0.00100845520623746</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V86" t="n">
-        <v>0.000108039154914331</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="b">
         <v>0</v>
       </c>
       <c r="Y86" t="n">
-        <v>-0.3280427867059296</v>
+        <v>-0.6346949958501851</v>
       </c>
       <c r="Z86" t="n">
-        <v>-1.002231871724559</v>
+        <v>-1.359478080918416</v>
       </c>
     </row>
     <row r="87">
@@ -7522,32 +7522,32 @@
         <v>0.6404172501974141</v>
       </c>
       <c r="Q87" t="n">
-        <v>-0.002810564980749275</v>
+        <v>0.6235365804482919</v>
       </c>
       <c r="R87" t="n">
-        <v>0.6432278151781634</v>
+        <v>0.01688066974912228</v>
       </c>
       <c r="S87" t="n">
-        <v>0.01013483290294269</v>
+        <v>0.004704883185112118</v>
       </c>
       <c r="T87" t="n">
-        <v>0.6533626480811061</v>
+        <v>0.6282414636334039</v>
       </c>
       <c r="U87" t="n">
-        <v>0.000994310547153276</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V87" t="n">
-        <v>9.389449583014672e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="b">
         <v>0</v>
       </c>
       <c r="Y87" t="n">
-        <v>-0.4105389622086607</v>
+        <v>0.2960405514488749</v>
       </c>
       <c r="Z87" t="n">
-        <v>-1.335965786178251</v>
+        <v>0.6341008569299385</v>
       </c>
     </row>
     <row r="88">
@@ -7604,32 +7604,32 @@
         <v>0.6499671194586383</v>
       </c>
       <c r="Q88" t="n">
-        <v>-0.005108574011400191</v>
+        <v>0.6819219056262424</v>
       </c>
       <c r="R88" t="n">
-        <v>0.6550756934700385</v>
+        <v>-0.03195478616760417</v>
       </c>
       <c r="S88" t="n">
-        <v>-0.02160299622861874</v>
+        <v>-0.008906254215837732</v>
       </c>
       <c r="T88" t="n">
-        <v>0.6334726972414197</v>
+        <v>0.6730156514104048</v>
       </c>
       <c r="U88" t="n">
-        <v>0.0009831322194565476</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V88" t="n">
-        <v>8.271616813341864e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="b">
         <v>0</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.5260549877463931</v>
+        <v>-0.5603991227356612</v>
       </c>
       <c r="Z88" t="n">
-        <v>1.813601655688663</v>
+        <v>-1.200340839153031</v>
       </c>
     </row>
     <row r="89">
@@ -7686,32 +7686,32 @@
         <v>0.6436870834027565</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.03213923328215817</v>
+        <v>0.6790927271527153</v>
       </c>
       <c r="R89" t="n">
-        <v>0.6115478501205983</v>
+        <v>-0.0354056437499588</v>
       </c>
       <c r="S89" t="n">
-        <v>-0.007888561445682505</v>
+        <v>-0.009868057393935042</v>
       </c>
       <c r="T89" t="n">
-        <v>0.6036592886749158</v>
+        <v>0.6692246697587803</v>
       </c>
       <c r="U89" t="n">
-        <v>0.0009720055801429901</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V89" t="n">
-        <v>7.158952881986085e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="b">
         <v>0</v>
       </c>
       <c r="Y89" t="n">
-        <v>1.283888429185875</v>
+        <v>-0.6209176801650949</v>
       </c>
       <c r="Z89" t="n">
-        <v>4.730825313331946</v>
+        <v>-1.329967908614813</v>
       </c>
     </row>
     <row r="90">
@@ -7768,32 +7768,32 @@
         <v>0.3481392639969292</v>
       </c>
       <c r="Q90" t="n">
-        <v>-0.02782208969340905</v>
+        <v>0.3688246368439014</v>
       </c>
       <c r="R90" t="n">
-        <v>0.3759613536903383</v>
+        <v>-0.02068537284697219</v>
       </c>
       <c r="S90" t="n">
-        <v>-0.03125533155049347</v>
+        <v>-0.005765308149996265</v>
       </c>
       <c r="T90" t="n">
-        <v>0.3447060221398448</v>
+        <v>0.3630593286939052</v>
       </c>
       <c r="U90" t="n">
-        <v>0.001028878785600441</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V90" t="n">
-        <v>0.0001284627342773119</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="b">
         <v>0</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.1070341322199686</v>
+        <v>-0.3627645866922038</v>
       </c>
       <c r="Z90" t="n">
-        <v>0.3029115392765018</v>
+        <v>-0.7770196824710569</v>
       </c>
     </row>
     <row r="91">
@@ -7850,32 +7850,32 @@
         <v>0.3520665939058292</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.07190174105207264</v>
+        <v>0.2813535142119765</v>
       </c>
       <c r="R91" t="n">
-        <v>0.2801648528537566</v>
+        <v>0.07071307969385277</v>
       </c>
       <c r="S91" t="n">
-        <v>0.04316724694080371</v>
+        <v>0.01970874287327415</v>
       </c>
       <c r="T91" t="n">
-        <v>0.3233320997945603</v>
+        <v>0.3010622570852506</v>
       </c>
       <c r="U91" t="n">
-        <v>0.001087071560582474</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V91" t="n">
-        <v>0.0001866555092593451</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="b">
         <v>0</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.8715142417189773</v>
+        <v>1.240113065325873</v>
       </c>
       <c r="Z91" t="n">
-        <v>2.103212474812705</v>
+        <v>2.656246766075051</v>
       </c>
     </row>
     <row r="92">
@@ -7932,32 +7932,32 @@
         <v>0.3608535329929041</v>
       </c>
       <c r="Q92" t="n">
-        <v>-0.01910107712390197</v>
+        <v>0.388822144328981</v>
       </c>
       <c r="R92" t="n">
-        <v>0.3799546101168061</v>
+        <v>-0.02796861133607687</v>
       </c>
       <c r="S92" t="n">
-        <v>-0.0105083296479902</v>
+        <v>-0.007795250492873754</v>
       </c>
       <c r="T92" t="n">
-        <v>0.3694462804688159</v>
+        <v>0.3810268938361072</v>
       </c>
       <c r="U92" t="n">
-        <v>0.001017466092829803</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V92" t="n">
-        <v>0.0001170500415066733</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="b">
         <v>0</v>
       </c>
       <c r="Y92" t="n">
-        <v>-0.2693841730367516</v>
+        <v>-0.4904925720570462</v>
       </c>
       <c r="Z92" t="n">
-        <v>-0.7942299551893113</v>
+        <v>-1.050605259100305</v>
       </c>
     </row>
     <row r="93">
@@ -8014,32 +8014,32 @@
         <v>0.6490738455048729</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.1069430022154456</v>
+        <v>0.5645149400424797</v>
       </c>
       <c r="R93" t="n">
-        <v>0.5421308432894273</v>
+        <v>0.0845589054623932</v>
       </c>
       <c r="S93" t="n">
-        <v>0.04312304177937633</v>
+        <v>0.02356777179862238</v>
       </c>
       <c r="T93" t="n">
-        <v>0.5852538850688036</v>
+        <v>0.5880827118411021</v>
       </c>
       <c r="U93" t="n">
-        <v>0.0009857837882274851</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V93" t="n">
-        <v>8.536773690435572e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="b">
         <v>0</v>
       </c>
       <c r="Y93" t="n">
-        <v>2.032664464480478</v>
+        <v>1.482930794523383</v>
       </c>
       <c r="Z93" t="n">
-        <v>6.907321114642793</v>
+        <v>3.176347574590511</v>
       </c>
     </row>
     <row r="94">
@@ -8096,32 +8096,32 @@
         <v>0.6470475353020159</v>
       </c>
       <c r="Q94" t="n">
-        <v>-0.02953481000233482</v>
+        <v>0.6636106648333596</v>
       </c>
       <c r="R94" t="n">
-        <v>0.6765823453043507</v>
+        <v>-0.01656312953134376</v>
       </c>
       <c r="S94" t="n">
-        <v>-0.00114195628761686</v>
+        <v>-0.004616380201727673</v>
       </c>
       <c r="T94" t="n">
-        <v>0.6754403890167339</v>
+        <v>0.6589942846316319</v>
       </c>
       <c r="U94" t="n">
-        <v>0.0009908572732340462</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V94" t="n">
-        <v>9.044122191091725e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="b">
         <v>0</v>
       </c>
       <c r="Y94" t="n">
-        <v>-0.9019936789564709</v>
+        <v>-0.2904717687820704</v>
       </c>
       <c r="Z94" t="n">
-        <v>-2.985560211298577</v>
+        <v>-0.6221728631338346</v>
       </c>
     </row>
     <row r="95">
@@ -8178,32 +8178,32 @@
         <v>0.6611258645785382</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.0143541897088072</v>
+        <v>0.6279844050367505</v>
       </c>
       <c r="R95" t="n">
-        <v>0.646771674869731</v>
+        <v>0.03314145954178771</v>
       </c>
       <c r="S95" t="n">
-        <v>0.03099992351314735</v>
+        <v>0.009236996993844388</v>
       </c>
       <c r="T95" t="n">
-        <v>0.6777715983828784</v>
+        <v>0.6372214020305949</v>
       </c>
       <c r="U95" t="n">
-        <v>0.0009747288256100377</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V95" t="n">
-        <v>7.43127742869084e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="b">
         <v>0</v>
       </c>
       <c r="Y95" t="n">
-        <v>-0.5331642735644917</v>
+        <v>0.5812101121827937</v>
       </c>
       <c r="Z95" t="n">
-        <v>-1.930950797707959</v>
+        <v>1.244916712888577</v>
       </c>
     </row>
     <row r="96">
@@ -8260,32 +8260,32 @@
         <v>0.5534161380410395</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.03425010907577519</v>
+        <v>0.5263395911558156</v>
       </c>
       <c r="R96" t="n">
-        <v>0.5191660289652643</v>
+        <v>0.02707654688522387</v>
       </c>
       <c r="S96" t="n">
-        <v>0.01416199125084881</v>
+        <v>0.007546619419935507</v>
       </c>
       <c r="T96" t="n">
-        <v>0.5333280202161131</v>
+        <v>0.5338862105757511</v>
       </c>
       <c r="U96" t="n">
-        <v>0.0009938164290595431</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V96" t="n">
-        <v>9.340037773641376e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="b">
         <v>0</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.637215250245063</v>
+        <v>0.4748482133934732</v>
       </c>
       <c r="Z96" t="n">
-        <v>2.078571320397236</v>
+        <v>1.017095994284589</v>
       </c>
     </row>
     <row r="97">
@@ -8342,32 +8342,32 @@
         <v>0.4920847430852775</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.001064886224288353</v>
+        <v>0.4503269472855135</v>
       </c>
       <c r="R97" t="n">
-        <v>0.4910198568609891</v>
+        <v>0.04175779579976402</v>
       </c>
       <c r="S97" t="n">
-        <v>-0.0009407139688386968</v>
+        <v>0.01163849267968549</v>
       </c>
       <c r="T97" t="n">
-        <v>0.4900791428921504</v>
+        <v>0.461965439965199</v>
       </c>
       <c r="U97" t="n">
-        <v>0.0009921769206133898</v>
+        <v>0.001691576503273823</v>
       </c>
       <c r="V97" t="n">
-        <v>9.17608692902605e-05</v>
+        <v>0.0003687035955610146</v>
       </c>
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="b">
         <v>0</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.0636721921780966</v>
+        <v>0.7323169684396257</v>
       </c>
       <c r="Z97" t="n">
-        <v>0.209370554473702</v>
+        <v>1.568578409137625</v>
       </c>
     </row>
   </sheetData>
